--- a/initial_schema_dictionary_update.xlsx
+++ b/initial_schema_dictionary_update.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="columns" state="visible" r:id="rId3"/>
-    <sheet sheetId="2" name="tables" state="visible" r:id="rId4"/>
-    <sheet sheetId="3" name="Sheet3" state="visible" r:id="rId5"/>
+    <sheet name="columns" sheetId="1" r:id="rId1"/>
+    <sheet name="tables" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>table</t>
   </si>
@@ -165,9 +173,6 @@
     <t>deck</t>
   </si>
   <si>
-    <t>Vendors ##online source</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -394,29 +399,38 @@
   </si>
   <si>
     <t>all vendors that are providing price information</t>
+  </si>
+  <si>
+    <t>online_sources</t>
+  </si>
+  <si>
+    <t>online_sources_id</t>
+  </si>
+  <si>
+    <t>link to online sources</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -425,7 +439,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -444,769 +458,1105 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf fillId="0" numFmtId="0" borderId="0" fontId="0"/>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="1"/>
-    <xf applyAlignment="1" fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="2">
-      <alignment/>
-    </xf>
-    <xf fillId="2" xfId="0" numFmtId="0" borderId="1" applyFont="1" fontId="3"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="12.14"/>
-    <col min="2" customWidth="1" max="2" width="15.86"/>
-    <col min="3" customWidth="1" max="3" width="61.71"/>
-    <col min="4" customWidth="1" max="4" width="20.57"/>
-    <col min="5" customWidth="1" max="6" width="12.14"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="61.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="6" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="12.0">
-      <c t="s" s="1" r="A1">
+    <row r="1" spans="1:6" ht="12" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" s="1" r="B1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" s="1" r="C1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" s="2" r="E1">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c t="s" s="2" r="F1">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" r="2" ht="12.0">
-      <c t="s" s="3" r="A2">
+    <row r="2" spans="1:6" ht="12" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c t="s" s="3" r="B2">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c t="s" s="3" r="C2">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c t="s" s="3" r="D2">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c s="3" r="E2"/>
-      <c s="3" r="F2"/>
-    </row>
-    <row customHeight="1" r="3" ht="12.0">
-      <c s="3" r="A3"/>
-      <c t="s" s="3" r="B3">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="12" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c t="s" s="3" r="C3">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c s="3" r="D3"/>
-      <c s="3" r="E3"/>
-      <c s="3" r="F3"/>
-    </row>
-    <row customHeight="1" r="4" ht="12.0">
-      <c s="3" r="A4"/>
-      <c t="s" s="3" r="B4">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="12" customHeight="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c t="s" s="3" r="C4">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c t="s" s="3" r="D4">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c s="3" r="E4"/>
-      <c s="3" r="F4"/>
-    </row>
-    <row customHeight="1" r="5" ht="12.0">
-      <c s="3" r="A5"/>
-      <c t="s" s="3" r="B5">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="12" customHeight="1">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c t="s" s="3" r="C5">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c t="s" s="3" r="D5">
+      <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
-      <c s="3" r="E5"/>
-      <c s="3" r="F5"/>
-    </row>
-    <row customHeight="1" r="6" ht="12.0">
-      <c s="3" r="A6"/>
-      <c t="s" s="3" r="B6">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="12" customHeight="1">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c t="s" s="3" r="C6">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c t="s" s="3" r="D6">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c t="s" s="3" r="E6">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c s="3" r="F6"/>
-    </row>
-    <row customHeight="1" r="7" ht="12.0">
-      <c t="s" s="3" r="A7">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="12" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
-      <c t="s" s="3" r="B7">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c t="s" s="3" r="C7">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c s="3" r="D7"/>
-      <c s="3" r="E7"/>
-      <c s="3" r="F7"/>
-    </row>
-    <row customHeight="1" r="8" ht="12.0">
-      <c s="3" r="A8"/>
-      <c t="s" s="3" r="B8">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="12" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
-      <c t="s" s="3" r="C8">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c s="3" r="D8"/>
-      <c s="3" r="E8"/>
-      <c s="3" r="F8"/>
-    </row>
-    <row customHeight="1" r="9" ht="12.0">
-      <c s="3" r="A9"/>
-      <c t="s" s="3" r="B9">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="12" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c t="s" s="3" r="C9">
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c t="s" s="3" r="D9">
+      <c r="D9" s="3" t="s">
         <v>29</v>
       </c>
-      <c s="3" r="E9"/>
-      <c s="3" r="F9"/>
-    </row>
-    <row customHeight="1" r="10" ht="12.0">
-      <c s="3" r="A10"/>
-      <c t="s" s="3" r="B10">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="12" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c t="s" s="3" r="C10">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c t="s" s="3" r="D10">
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c t="s" s="3" r="E10">
+      <c r="E10" s="3" t="s">
         <v>33</v>
       </c>
-      <c s="3" r="F10"/>
-    </row>
-    <row customHeight="1" r="11" ht="12.0">
-      <c t="s" s="3" r="A11">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="12" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c t="s" s="3" r="B11">
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c t="s" s="3" r="C11">
+      <c r="C11" s="3" t="s">
         <v>36</v>
       </c>
-      <c t="s" s="3" r="D11">
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c s="3" r="E11"/>
-      <c t="s" s="3" r="F11">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row customHeight="1" r="12" ht="12.0">
-      <c s="3" r="A12"/>
-      <c t="s" s="3" r="B12">
+    <row r="12" spans="1:6" ht="12" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c t="s" s="3" r="C12">
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c s="3" r="D12"/>
-      <c s="3" r="E12"/>
-      <c s="3" r="F12"/>
-    </row>
-    <row customHeight="1" r="13" ht="12.0">
-      <c s="3" r="A13"/>
-      <c t="s" s="3" r="B13">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="12" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c t="s" s="3" r="C13">
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c s="3" r="D13"/>
-      <c s="3" r="E13"/>
-      <c t="s" s="3" r="F13">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row customHeight="1" r="14" ht="12.0">
-      <c s="3" r="A14"/>
-      <c t="s" s="3" r="B14">
+    <row r="14" spans="1:6" ht="12" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c t="s" s="3" r="C14">
+      <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c s="3" r="D14"/>
-      <c s="3" r="E14"/>
-      <c s="3" r="F14"/>
-    </row>
-    <row customHeight="1" r="15" ht="12.0">
-      <c s="3" r="A15"/>
-      <c t="s" s="3" r="B15">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="12" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
         <v>46</v>
       </c>
-      <c t="s" s="3" r="C15">
+      <c r="C15" s="3" t="s">
         <v>47</v>
       </c>
-      <c t="s" s="3" r="D15">
+      <c r="D15" s="3" t="s">
         <v>48</v>
       </c>
-      <c s="3" r="E15"/>
-      <c t="s" s="3" r="F15">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row customHeight="1" r="16" ht="12.0">
-      <c t="s" s="3" r="A16">
+    <row r="16" spans="1:6" ht="12" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c t="s" s="3" r="B16">
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c t="s" s="3" r="C16">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="12" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-      <c s="3" r="D16"/>
-      <c s="3" r="E16"/>
-      <c s="3" r="F16"/>
-    </row>
-    <row customHeight="1" r="17" ht="12.0">
-      <c s="3" r="A17"/>
-      <c t="s" s="3" r="B17">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c t="s" s="3" r="C17">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="12" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>54</v>
       </c>
-      <c s="3" r="D17"/>
-      <c s="3" r="E17"/>
-      <c s="3" r="F17"/>
-    </row>
-    <row customHeight="1" r="18" ht="12.0">
-      <c s="3" r="A18"/>
-      <c t="s" s="3" r="B18">
+      <c r="C18" s="3" t="s">
         <v>55</v>
       </c>
-      <c t="s" s="3" r="C18">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="12" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3" t="s">
         <v>56</v>
       </c>
-      <c s="3" r="D18"/>
-      <c s="3" r="E18"/>
-      <c s="3" r="F18"/>
-    </row>
-    <row customHeight="1" r="19" ht="12.0">
-      <c s="3" r="A19"/>
-      <c t="s" s="3" r="B19">
+      <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
-      <c t="s" s="3" r="C19">
+      <c r="D19" s="3" t="s">
         <v>58</v>
       </c>
-      <c t="s" s="3" r="D19">
+      <c r="E19" s="3" t="s">
         <v>59</v>
       </c>
-      <c t="s" s="3" r="E19">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="12" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>60</v>
       </c>
-      <c s="3" r="F19"/>
-    </row>
-    <row customHeight="1" r="20" ht="12.0">
-      <c t="s" s="3" r="A20">
+      <c r="B20" s="3" t="s">
         <v>61</v>
       </c>
-      <c t="s" s="3" r="B20">
+      <c r="C20" s="3" t="s">
         <v>62</v>
       </c>
-      <c t="s" s="3" r="C20">
+      <c r="D20" s="3" t="s">
         <v>63</v>
       </c>
-      <c t="s" s="3" r="D20">
+      <c r="E20" s="3" t="s">
         <v>64</v>
       </c>
-      <c t="s" s="3" r="E20">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="12" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3" t="s">
         <v>65</v>
       </c>
-      <c s="3" r="F20"/>
-    </row>
-    <row customHeight="1" r="21" ht="12.0">
-      <c s="3" r="A21"/>
-      <c t="s" s="3" r="B21">
+      <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
-      <c t="s" s="3" r="C21">
+      <c r="D21" s="3" t="s">
         <v>67</v>
       </c>
-      <c t="s" s="3" r="D21">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="12" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
         <v>68</v>
       </c>
-      <c s="3" r="E21"/>
-      <c s="3" r="F21"/>
-    </row>
-    <row customHeight="1" r="22" ht="12.0">
-      <c s="3" r="A22"/>
-      <c t="s" s="3" r="B22">
+      <c r="C22" s="3" t="s">
         <v>69</v>
       </c>
-      <c t="s" s="3" r="C22">
+      <c r="D22" s="3" t="s">
         <v>70</v>
       </c>
-      <c t="s" s="3" r="D22">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="12" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
         <v>71</v>
       </c>
-      <c s="3" r="E22"/>
-      <c s="3" r="F22"/>
-    </row>
-    <row customHeight="1" r="23" ht="12.0">
-      <c s="3" r="A23"/>
-      <c t="s" s="3" r="B23">
+      <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
-      <c t="s" s="3" r="C23">
+      <c r="D23" s="3" t="s">
         <v>73</v>
       </c>
-      <c t="s" s="3" r="D23">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="12" customHeight="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3" t="s">
         <v>74</v>
       </c>
-      <c s="3" r="E23"/>
-      <c s="3" r="F23"/>
-    </row>
-    <row customHeight="1" r="24" ht="12.0">
-      <c s="3" r="A24"/>
-      <c t="s" s="3" r="B24">
+      <c r="C24" s="3" t="s">
         <v>75</v>
       </c>
-      <c t="s" s="3" r="C24">
+      <c r="D24" s="3" t="s">
         <v>76</v>
       </c>
-      <c t="s" s="3" r="D24">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" ht="12" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>77</v>
       </c>
-      <c s="3" r="E24"/>
-      <c s="3" r="F24"/>
-    </row>
-    <row customHeight="1" r="25" ht="12.0">
-      <c t="s" s="3" r="A25">
+      <c r="B25" s="3" t="s">
         <v>78</v>
       </c>
-      <c t="s" s="3" r="B25">
+      <c r="C25" s="3" t="s">
         <v>79</v>
       </c>
-      <c t="s" s="3" r="C25">
+      <c r="D25" s="3" t="s">
         <v>80</v>
       </c>
-      <c t="s" s="3" r="D25">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="12" customHeight="1">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>81</v>
       </c>
-      <c s="3" r="E25"/>
-      <c s="3" r="F25"/>
-    </row>
-    <row customHeight="1" r="26" ht="12.0">
-      <c s="3" r="A26"/>
-      <c t="s" s="3" r="B26">
+      <c r="C26" s="3" t="s">
         <v>82</v>
       </c>
-      <c t="s" s="3" r="C26">
+      <c r="D26" s="3" t="s">
         <v>83</v>
       </c>
-      <c t="s" s="3" r="D26">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" ht="12" customHeight="1">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3" t="s">
         <v>84</v>
       </c>
-      <c s="3" r="E26"/>
-      <c s="3" r="F26"/>
-    </row>
-    <row customHeight="1" r="27" ht="12.0">
-      <c s="3" r="A27"/>
-      <c t="s" s="3" r="B27">
+      <c r="C27" s="3" t="s">
         <v>85</v>
       </c>
-      <c t="s" s="3" r="C27">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" ht="12" customHeight="1">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3" t="s">
         <v>86</v>
       </c>
-      <c s="3" r="D27"/>
-      <c s="3" r="E27"/>
-      <c s="3" r="F27"/>
-    </row>
-    <row customHeight="1" r="28" ht="12.0">
-      <c s="3" r="A28"/>
-      <c t="s" s="3" r="B28">
+      <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
-      <c t="s" s="3" r="C28">
+      <c r="D28" s="3" t="s">
         <v>88</v>
       </c>
-      <c t="s" s="3" r="D28">
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" ht="12" customHeight="1">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3" t="s">
         <v>89</v>
       </c>
-      <c s="3" r="E28"/>
-      <c s="3" r="F28"/>
-    </row>
-    <row customHeight="1" r="29" ht="12.0">
-      <c s="3" r="A29"/>
-      <c t="s" s="3" r="B29">
+      <c r="C29" s="3" t="s">
         <v>90</v>
       </c>
-      <c t="s" s="3" r="C29">
+      <c r="D29" s="3" t="s">
         <v>91</v>
       </c>
-      <c t="s" s="3" r="D29">
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="12" customHeight="1">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3" t="s">
         <v>92</v>
       </c>
-      <c s="3" r="E29"/>
-      <c s="3" r="F29"/>
-    </row>
-    <row customHeight="1" r="30" ht="12.0">
-      <c s="3" r="A30"/>
-      <c t="s" s="3" r="B30">
+      <c r="C30" s="3" t="s">
         <v>93</v>
       </c>
-      <c t="s" s="3" r="C30">
+      <c r="D30" s="3" t="s">
         <v>94</v>
       </c>
-      <c t="s" s="3" r="D30">
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" ht="12" customHeight="1">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
         <v>95</v>
       </c>
-      <c s="3" r="E30"/>
-      <c s="3" r="F30"/>
-    </row>
-    <row customHeight="1" r="31" ht="12.0">
-      <c s="3" r="A31"/>
-      <c t="s" s="3" r="B31">
+      <c r="C31" s="3" t="s">
         <v>96</v>
       </c>
-      <c t="s" s="3" r="C31">
+      <c r="D31" s="3" t="s">
         <v>97</v>
       </c>
-      <c t="s" s="3" r="D31">
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>98</v>
       </c>
-      <c s="3" r="E31"/>
-      <c t="s" s="3" r="F31">
+    </row>
+    <row r="32" spans="1:6" ht="12" customHeight="1">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row customHeight="1" r="32" ht="12.0">
-      <c s="3" r="A32"/>
-      <c t="s" s="3" r="B32">
+      <c r="C32" s="3" t="s">
         <v>100</v>
       </c>
-      <c t="s" s="3" r="C32">
+      <c r="D32" s="3" t="s">
         <v>101</v>
       </c>
-      <c t="s" s="3" r="D32">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>102</v>
       </c>
-      <c s="3" r="E32"/>
-      <c t="s" s="3" r="F32">
+    </row>
+    <row r="33" spans="1:6" ht="12" customHeight="1">
+      <c r="A33" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row customHeight="1" r="33" ht="12.0">
-      <c t="s" s="3" r="A33">
+      <c r="B33" s="3" t="s">
         <v>104</v>
       </c>
-      <c t="s" s="3" r="B33">
+      <c r="C33" s="3" t="s">
         <v>105</v>
       </c>
-      <c t="s" s="3" r="C33">
+      <c r="D33" s="3" t="s">
         <v>106</v>
       </c>
-      <c t="s" s="3" r="D33">
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" ht="12" customHeight="1">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3" t="s">
         <v>107</v>
       </c>
-      <c s="3" r="E33"/>
-      <c s="3" r="F33"/>
-    </row>
-    <row customHeight="1" r="34" ht="12.0">
-      <c s="3" r="A34"/>
-      <c t="s" s="3" r="B34">
+      <c r="C34" s="3" t="s">
         <v>108</v>
       </c>
-      <c t="s" s="3" r="C34">
+      <c r="D34" s="3" t="s">
         <v>109</v>
       </c>
-      <c t="s" s="3" r="D34">
+      <c r="E34" s="3" t="s">
         <v>110</v>
       </c>
-      <c t="s" s="3" r="E34">
+      <c r="F34" s="3"/>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" customHeight="1">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="12" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>111</v>
       </c>
-      <c s="3" r="F34"/>
-    </row>
-    <row customHeight="1" r="35" ht="12.75">
-      <c s="3" r="A35"/>
-      <c s="3" r="B35"/>
-      <c s="3" r="C35"/>
-      <c s="3" r="D35"/>
-      <c s="3" r="E35"/>
-      <c s="3" r="F35"/>
-    </row>
-    <row customHeight="1" r="36" ht="12.0">
-      <c t="s" s="3" r="A36">
-        <v>112</v>
-      </c>
-      <c s="3" r="B36"/>
-      <c s="3" r="C36"/>
-      <c s="3" r="D36"/>
-      <c s="3" r="E36"/>
-      <c s="3" r="F36"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="12.14"/>
-    <col min="2" customWidth="1" max="2" width="40.71"/>
-    <col min="3" customWidth="1" max="6" width="12.29"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="12.0">
-      <c t="s" s="3" r="A1">
+    <row r="1" spans="1:2" ht="12" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>113</v>
       </c>
-      <c t="s" s="3" r="B1">
+    </row>
+    <row r="2" spans="1:2" ht="12" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row customHeight="1" r="2" ht="12.0">
-      <c t="s" s="3" r="A2">
+      <c r="B2" s="3" t="s">
         <v>115</v>
       </c>
-      <c t="s" s="3" r="B2">
+    </row>
+    <row r="3" spans="1:2" ht="12" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row customHeight="1" r="3" ht="12.0">
-      <c t="s" s="3" r="A3">
+      <c r="B3" s="3" t="s">
         <v>117</v>
       </c>
-      <c t="s" s="3" r="B3">
+    </row>
+    <row r="4" spans="1:2" ht="12" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row customHeight="1" r="4" ht="12.0">
-      <c t="s" s="3" r="A4">
+      <c r="B4" s="3" t="s">
         <v>119</v>
       </c>
-      <c t="s" s="3" r="B4">
+    </row>
+    <row r="5" spans="1:2" ht="12" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row customHeight="1" r="5" ht="12.0">
-      <c t="s" s="3" r="A5">
+      <c r="B5" s="3" t="s">
         <v>121</v>
       </c>
-      <c t="s" s="3" r="B5">
+    </row>
+    <row r="6" spans="1:2" ht="12" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row customHeight="1" r="6" ht="12.0">
-      <c t="s" s="3" r="A6">
+      <c r="B6" s="3" t="s">
         <v>123</v>
       </c>
-      <c t="s" s="3" r="B6">
+    </row>
+    <row r="7" spans="1:2" ht="12" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row customHeight="1" r="7" ht="12.0">
-      <c t="s" s="3" r="A7">
+      <c r="B7" s="3" t="s">
         <v>125</v>
       </c>
-      <c t="s" s="3" r="B7">
-        <v>126</v>
-      </c>
-    </row>
-    <row customHeight="1" r="8" ht="12.75">
-      <c s="3" r="A8"/>
-      <c s="3" r="B8"/>
-    </row>
-    <row customHeight="1" r="9" ht="12.75">
-      <c s="3" r="A9"/>
-      <c s="3" r="B9"/>
-    </row>
-    <row customHeight="1" r="10" ht="12.75">
-      <c s="3" r="A10"/>
-      <c s="3" r="B10"/>
-    </row>
-    <row customHeight="1" r="11" ht="12.75">
-      <c s="3" r="A11"/>
-      <c s="3" r="B11"/>
-    </row>
-    <row customHeight="1" r="12" ht="12.75">
-      <c s="3" r="A12"/>
-      <c s="3" r="B12"/>
-    </row>
-    <row customHeight="1" r="13" ht="12.75">
-      <c s="3" r="A13"/>
-      <c s="3" r="B13"/>
-    </row>
-    <row customHeight="1" r="14" ht="12.75">
-      <c s="3" r="A14"/>
-      <c s="3" r="B14"/>
-    </row>
-    <row customHeight="1" r="15" ht="12.75">
-      <c s="3" r="A15"/>
-      <c s="3" r="B15"/>
-    </row>
-    <row customHeight="1" r="16" ht="12.75">
-      <c s="3" r="A16"/>
-      <c s="3" r="B16"/>
-    </row>
-    <row customHeight="1" r="17" ht="12.75">
-      <c s="3" r="A17"/>
-      <c s="3" r="B17"/>
-    </row>
-    <row customHeight="1" r="18" ht="12.75">
-      <c s="3" r="A18"/>
-      <c s="3" r="B18"/>
-    </row>
-    <row customHeight="1" r="19" ht="12.75">
-      <c s="3" r="A19"/>
-      <c s="3" r="B19"/>
-    </row>
-    <row customHeight="1" r="20" ht="12.75">
-      <c s="3" r="A20"/>
-      <c s="3" r="B20"/>
+    </row>
+    <row r="8" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="12.75" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" customWidth="1" max="1" width="12.14"/>
-    <col min="2" customWidth="1" max="6" width="12.29"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="2" max="6" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="12.75">
-      <c s="3" r="A1"/>
-    </row>
-    <row customHeight="1" r="2" ht="12.75">
-      <c s="3" r="A2"/>
-    </row>
-    <row customHeight="1" r="3" ht="12.75">
-      <c s="3" r="A3"/>
-    </row>
-    <row customHeight="1" r="4" ht="12.75">
-      <c s="3" r="A4"/>
-    </row>
-    <row customHeight="1" r="5" ht="12.75">
-      <c s="3" r="A5"/>
-    </row>
-    <row customHeight="1" r="6" ht="12.75">
-      <c s="3" r="A6"/>
-    </row>
-    <row customHeight="1" r="7" ht="12.75">
-      <c s="3" r="A7"/>
-    </row>
-    <row customHeight="1" r="8" ht="12.75">
-      <c s="3" r="A8"/>
-    </row>
-    <row customHeight="1" r="9" ht="12.75">
-      <c s="3" r="A9"/>
-    </row>
-    <row customHeight="1" r="10" ht="12.75">
-      <c s="3" r="A10"/>
-    </row>
-    <row customHeight="1" r="11" ht="12.75">
-      <c s="3" r="A11"/>
-    </row>
-    <row customHeight="1" r="12" ht="12.75">
-      <c s="3" r="A12"/>
-    </row>
-    <row customHeight="1" r="13" ht="12.75">
-      <c s="3" r="A13"/>
-    </row>
-    <row customHeight="1" r="14" ht="12.75">
-      <c s="3" r="A14"/>
-    </row>
-    <row customHeight="1" r="15" ht="12.75">
-      <c s="3" r="A15"/>
-    </row>
-    <row customHeight="1" r="16" ht="12.75">
-      <c s="3" r="A16"/>
-    </row>
-    <row customHeight="1" r="17" ht="12.75">
-      <c s="3" r="A17"/>
-    </row>
-    <row customHeight="1" r="18" ht="12.75">
-      <c s="3" r="A18"/>
-    </row>
-    <row customHeight="1" r="19" ht="12.75">
-      <c s="3" r="A19"/>
-    </row>
-    <row customHeight="1" r="20" ht="12.75">
-      <c s="3" r="A20"/>
+    <row r="1" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A1" s="3"/>
+    </row>
+    <row r="2" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A2" s="3"/>
+    </row>
+    <row r="3" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" ht="12.75" customHeight="1">
+      <c r="A20" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>